--- a/forecast_summary_B0CTTVFWHM.xlsx
+++ b/forecast_summary_B0CTTVFWHM.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,19 +476,24 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>45627</v>
       </c>
       <c r="B2" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C2" t="n">
         <v>129.8141321449596</v>
       </c>
       <c r="D2" t="n">
-        <v>148.1820249235676</v>
+        <v>145.6564200264564</v>
       </c>
       <c r="E2" t="n">
         <v>60</v>
@@ -511,6 +516,9 @@
         <is>
           <t>Z790 AORUS PRO X WIFI7</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>154.0107164453306</v>
       </c>
       <c r="D3" t="n">
-        <v>173.6534438920192</v>
+        <v>173.3619268511144</v>
       </c>
       <c r="E3" t="n">
         <v>22</v>
@@ -547,6 +555,9 @@
         <is>
           <t>Z790 AORUS PRO X WIFI7</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>88.98601254678587</v>
       </c>
       <c r="D4" t="n">
-        <v>106.0183543715618</v>
+        <v>108.2399264056599</v>
       </c>
       <c r="E4" t="n">
         <v>23</v>
@@ -583,6 +594,9 @@
         <is>
           <t>Z790 AORUS PRO X WIFI7</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>-17.72847082586612</v>
       </c>
       <c r="D5" t="n">
-        <v>0.896129263831985</v>
+        <v>0.3366672590417619</v>
       </c>
       <c r="E5" t="n">
         <v>18</v>
@@ -619,6 +633,9 @@
         <is>
           <t>Z790 AORUS PRO X WIFI7</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>-56.48183937187913</v>
       </c>
       <c r="D6" t="n">
-        <v>-37.59206107275721</v>
+        <v>-40.29605096591349</v>
       </c>
       <c r="E6" t="n">
         <v>19</v>
@@ -655,6 +672,9 @@
         <is>
           <t>Z790 AORUS PRO X WIFI7</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>30.20843416604186</v>
       </c>
       <c r="D7" t="n">
-        <v>47.09587015179708</v>
+        <v>47.6034975531301</v>
       </c>
       <c r="E7" t="n">
         <v>21</v>
@@ -691,6 +711,9 @@
         <is>
           <t>Z790 AORUS PRO X WIFI7</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>172.2448781864948</v>
       </c>
       <c r="D8" t="n">
-        <v>190.2989793476102</v>
+        <v>190.1521924362178</v>
       </c>
       <c r="E8" t="n">
         <v>19</v>
@@ -727,6 +750,9 @@
         <is>
           <t>Z790 AORUS PRO X WIFI7</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>232.8775311375349</v>
       </c>
       <c r="D9" t="n">
-        <v>250.7386259778364</v>
+        <v>250.4712312742648</v>
       </c>
       <c r="E9" t="n">
         <v>19</v>
@@ -763,6 +789,9 @@
         <is>
           <t>Z790 AORUS PRO X WIFI7</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>152.2428672934147</v>
       </c>
       <c r="D10" t="n">
-        <v>169.3607075913287</v>
+        <v>169.2810717481686</v>
       </c>
       <c r="E10" t="n">
         <v>20</v>
@@ -799,6 +828,9 @@
         <is>
           <t>Z790 AORUS PRO X WIFI7</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>16.29735657921561</v>
       </c>
       <c r="D11" t="n">
-        <v>34.07632290447224</v>
+        <v>33.46282089225818</v>
       </c>
       <c r="E11" t="n">
         <v>25</v>
@@ -835,6 +867,9 @@
         <is>
           <t>Z790 AORUS PRO X WIFI7</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>-31.27807111166419</v>
       </c>
       <c r="D12" t="n">
-        <v>-13.02524567456117</v>
+        <v>-14.24239402821358</v>
       </c>
       <c r="E12" t="n">
         <v>25</v>
@@ -871,6 +906,9 @@
         <is>
           <t>Z790 AORUS PRO X WIFI7</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>59.27975338056631</v>
       </c>
       <c r="D13" t="n">
-        <v>77.10842222987527</v>
+        <v>76.41835473042076</v>
       </c>
       <c r="E13" t="n">
         <v>26</v>
@@ -907,6 +945,9 @@
         <is>
           <t>Z790 AORUS PRO X WIFI7</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>195.5989461288491</v>
       </c>
       <c r="D14" t="n">
-        <v>214.4133484244707</v>
+        <v>213.9241032070782</v>
       </c>
       <c r="E14" t="n">
         <v>26</v>
@@ -943,6 +984,9 @@
         <is>
           <t>Z790 AORUS PRO X WIFI7</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>247.9833878393732</v>
       </c>
       <c r="D15" t="n">
-        <v>265.9892135784214</v>
+        <v>266.3526898669904</v>
       </c>
       <c r="E15" t="n">
         <v>25</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>Z790 AORUS PRO X WIFI7</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>184.8770955532054</v>
       </c>
       <c r="D16" t="n">
-        <v>202.3282104943616</v>
+        <v>202.5852924397216</v>
       </c>
       <c r="E16" t="n">
         <v>26</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>Z790 AORUS PRO X WIFI7</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>90.02042669320601</v>
       </c>
       <c r="D17" t="n">
-        <v>107.6490687525792</v>
+        <v>108.252958297292</v>
       </c>
       <c r="E17" t="n">
         <v>24</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>Z790 AORUS PRO X WIFI7</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>56.0493739014605</v>
       </c>
       <c r="D18" t="n">
-        <v>73.88611812517749</v>
+        <v>73.6241286392475</v>
       </c>
       <c r="E18" t="n">
         <v>24</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>Z790 AORUS PRO X WIFI7</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>87.44336270081524</v>
       </c>
       <c r="D19" t="n">
-        <v>107.0653865266664</v>
+        <v>105.9458169624071</v>
       </c>
       <c r="E19" t="n">
         <v>24</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>Z790 AORUS PRO X WIFI7</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>118.4776459530129</v>
       </c>
       <c r="D20" t="n">
-        <v>136.7063064417324</v>
+        <v>135.8479218465256</v>
       </c>
       <c r="E20" t="n">
         <v>28</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>Z790 AORUS PRO X WIFI7</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>105.567750277638</v>
       </c>
       <c r="D21" t="n">
-        <v>124.6961123333197</v>
+        <v>123.9644804865304</v>
       </c>
       <c r="E21" t="n">
         <v>24</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>Z790 AORUS PRO X WIFI7</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1385,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1779</t>
+          <t>1778</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1397,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>820</t>
+          <t>819</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1409,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>378</t>
         </is>
       </c>
     </row>
